--- a/record/address.xlsx
+++ b/record/address.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <si>
     <t>ip</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,139 +35,268 @@
     <t>27.193.4.54</t>
   </si>
   <si>
-    <t>60.24.151.48</t>
+    <t>117.36.103.170</t>
+  </si>
+  <si>
+    <t>122.245.58.221</t>
+  </si>
+  <si>
+    <t>114.252.175.88</t>
+  </si>
+  <si>
+    <t>36.32.106.61</t>
+  </si>
+  <si>
+    <t>180.118.242.189</t>
+  </si>
+  <si>
+    <t>117.22.178.187</t>
+  </si>
+  <si>
+    <t>117.66.132.61</t>
+  </si>
+  <si>
+    <t>218.94.252.178</t>
+  </si>
+  <si>
+    <t>117.33.23.7</t>
+  </si>
+  <si>
+    <t>222.95.29.152</t>
+  </si>
+  <si>
+    <t>42.235.122.52</t>
+  </si>
+  <si>
+    <t>39.72.54.28</t>
+  </si>
+  <si>
+    <t>122.236.154.66</t>
+  </si>
+  <si>
+    <t>124.227.84.42</t>
+  </si>
+  <si>
+    <t>119.28.128.206</t>
+  </si>
+  <si>
+    <t>58.49.235.143</t>
+  </si>
+  <si>
+    <t>221.231.109.40</t>
+  </si>
+  <si>
+    <t>121.60.76.59</t>
+  </si>
+  <si>
+    <t>182.42.244.188</t>
+  </si>
+  <si>
+    <t>171.35.103.37</t>
+  </si>
+  <si>
+    <t>121.228.55.42</t>
+  </si>
+  <si>
+    <t>139.199.87.42</t>
+  </si>
+  <si>
+    <t>106.42.98.74</t>
+  </si>
+  <si>
+    <t>221.3.39.207</t>
+  </si>
+  <si>
+    <t>113.92.159.73</t>
+  </si>
+  <si>
+    <t>123.135.94.83</t>
+  </si>
+  <si>
+    <t>61.135.155.82</t>
+  </si>
+  <si>
+    <t>123.206.55.132</t>
+  </si>
+  <si>
+    <t>118.114.77.47</t>
+  </si>
+  <si>
+    <t>182.42.244.3</t>
+  </si>
+  <si>
+    <t>113.206.129.132</t>
+  </si>
+  <si>
+    <t>60.177.225.181</t>
+  </si>
+  <si>
+    <t>123.170.65.244</t>
+  </si>
+  <si>
+    <t>182.35.144.113</t>
+  </si>
+  <si>
+    <t>60.9.26.62</t>
+  </si>
+  <si>
+    <t>59.56.46.81</t>
+  </si>
+  <si>
+    <t>211.147.67.150</t>
+  </si>
+  <si>
+    <t>175.171.149.128</t>
+  </si>
+  <si>
+    <t>116.62.217.206</t>
+  </si>
+  <si>
+    <t>123.116.242.190</t>
+  </si>
+  <si>
+    <t>122.114.31.177</t>
+  </si>
+  <si>
+    <t>112.81.30.60</t>
+  </si>
+  <si>
+    <t>14.211.116.16</t>
+  </si>
+  <si>
+    <t>171.37.166.122</t>
+  </si>
+  <si>
+    <t>114.112.43.139</t>
+  </si>
+  <si>
+    <t>180.121.129.68</t>
   </si>
   <si>
     <t>61.135.217.7</t>
   </si>
   <si>
-    <t>122.114.31.177</t>
-  </si>
-  <si>
-    <t>27.40.158.3</t>
-  </si>
-  <si>
-    <t>122.225.17.123</t>
-  </si>
-  <si>
-    <t>61.166.188.147</t>
-  </si>
-  <si>
-    <t>222.183.211.69</t>
-  </si>
-  <si>
-    <t>171.113.52.169</t>
-  </si>
-  <si>
-    <t>113.83.241.17</t>
-  </si>
-  <si>
-    <t>113.234.8.156</t>
-  </si>
-  <si>
-    <t>115.52.196.239</t>
-  </si>
-  <si>
-    <t>180.212.140.159</t>
-  </si>
-  <si>
-    <t>112.114.97.121</t>
-  </si>
-  <si>
-    <t>113.234.106.47</t>
-  </si>
-  <si>
-    <t>112.81.30.60</t>
-  </si>
-  <si>
-    <t>182.42.244.251</t>
-  </si>
-  <si>
-    <t>58.37.129.246</t>
-  </si>
-  <si>
-    <t>112.114.76.187</t>
-  </si>
-  <si>
-    <t>117.66.134.231</t>
-  </si>
-  <si>
-    <t>117.36.103.170</t>
-  </si>
-  <si>
-    <t>1.192.243.249</t>
-  </si>
-  <si>
-    <t>36.24.74.134</t>
-  </si>
-  <si>
-    <t>175.15.251.242</t>
-  </si>
-  <si>
-    <t>115.55.147.212</t>
-  </si>
-  <si>
-    <t>113.78.91.211</t>
-  </si>
-  <si>
-    <t>202.103.14.155</t>
+    <t>112.251.212.91</t>
+  </si>
+  <si>
+    <t>153.35.185.71</t>
+  </si>
+  <si>
+    <t>115.46.96.117</t>
+  </si>
+  <si>
+    <t>118.254.142.42</t>
+  </si>
+  <si>
+    <t>27.19.170.86</t>
+  </si>
+  <si>
+    <t>175.11.52.50</t>
+  </si>
+  <si>
+    <t>58.240.226.185</t>
+  </si>
+  <si>
+    <t>110.73.54.63</t>
+  </si>
+  <si>
+    <t>60.23.46.24</t>
+  </si>
+  <si>
+    <t>14.117.179.20</t>
+  </si>
+  <si>
+    <t>115.46.98.85</t>
+  </si>
+  <si>
+    <t>219.225.128.5</t>
   </si>
   <si>
     <t>218.20.218.200</t>
   </si>
   <si>
-    <t>114.97.185.150</t>
-  </si>
-  <si>
-    <t>14.20.182.123</t>
-  </si>
-  <si>
-    <t>27.213.199.239</t>
-  </si>
-  <si>
-    <t>27.19.170.86</t>
-  </si>
-  <si>
-    <t>175.161.30.236</t>
-  </si>
-  <si>
-    <t>221.202.251.113</t>
-  </si>
-  <si>
-    <t>222.215.251.204</t>
-  </si>
-  <si>
-    <t>221.197.237.128</t>
-  </si>
-  <si>
-    <t>123.185.131.20</t>
-  </si>
-  <si>
-    <t>180.118.240.17</t>
-  </si>
-  <si>
-    <t>112.114.78.89</t>
-  </si>
-  <si>
-    <t>122.237.79.167</t>
-  </si>
-  <si>
-    <t>27.158.124.81</t>
-  </si>
-  <si>
-    <t>27.40.140.81</t>
-  </si>
-  <si>
-    <t>180.118.33.198</t>
-  </si>
-  <si>
-    <t>218.65.58.6</t>
-  </si>
-  <si>
-    <t>110.73.43.204</t>
-  </si>
-  <si>
-    <t>58.49.233.6</t>
+    <t>49.87.147.42</t>
+  </si>
+  <si>
+    <t>111.155.124.84</t>
+  </si>
+  <si>
+    <t>106.112.167.150</t>
+  </si>
+  <si>
+    <t>120.27.144.192</t>
+  </si>
+  <si>
+    <t>113.246.131.164</t>
+  </si>
+  <si>
+    <t>120.27.10.38</t>
+  </si>
+  <si>
+    <t>183.49.85.43</t>
+  </si>
+  <si>
+    <t>116.235.122.24</t>
+  </si>
+  <si>
+    <t>112.93.70.31</t>
+  </si>
+  <si>
+    <t>182.42.244.96</t>
+  </si>
+  <si>
+    <t>218.13.11.186</t>
+  </si>
+  <si>
+    <t>111.155.116.229</t>
+  </si>
+  <si>
+    <t>27.152.156.136</t>
+  </si>
+  <si>
+    <t>221.233.85.156</t>
+  </si>
+  <si>
+    <t>117.23.232.255</t>
+  </si>
+  <si>
+    <t>111.155.116.216</t>
+  </si>
+  <si>
+    <t>106.7.74.26</t>
+  </si>
+  <si>
+    <t>58.49.233.211</t>
+  </si>
+  <si>
+    <t>58.49.235.115</t>
+  </si>
+  <si>
+    <t>49.71.16.194</t>
+  </si>
+  <si>
+    <t>219.138.58.49</t>
+  </si>
+  <si>
+    <t>218.5.194.150</t>
+  </si>
+  <si>
+    <t>219.216.64.26</t>
+  </si>
+  <si>
+    <t>58.49.233.156</t>
+  </si>
+  <si>
+    <t>58.49.235.253</t>
+  </si>
+  <si>
+    <t>39.86.42.57</t>
+  </si>
+  <si>
+    <t>219.138.58.86</t>
+  </si>
+  <si>
+    <t>61.178.238.122</t>
   </si>
 </sst>
 </file>
@@ -516,10 +645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -537,7 +666,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="B2">
         <v>80</v>
@@ -545,31 +674,31 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>808</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>61234</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>8080</v>
+        <v>8118</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="B6">
         <v>8118</v>
@@ -577,23 +706,23 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B7">
-        <v>8118</v>
+        <v>808</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B8">
-        <v>8118</v>
+        <v>808</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="B9">
         <v>8118</v>
@@ -601,15 +730,15 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="B10">
-        <v>80</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B11">
         <v>8118</v>
@@ -617,23 +746,23 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B12">
-        <v>8118</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="B13">
-        <v>8118</v>
+        <v>8123</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="B14">
         <v>80</v>
@@ -641,7 +770,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B15">
         <v>8118</v>
@@ -649,7 +778,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="B16">
         <v>808</v>
@@ -657,15 +786,15 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B17">
-        <v>8118</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="B18">
         <v>8118</v>
@@ -673,7 +802,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B19">
         <v>8118</v>
@@ -681,7 +810,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B20">
         <v>8118</v>
@@ -689,31 +818,31 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="B21">
-        <v>8118</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="B22">
-        <v>808</v>
+        <v>8118</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="B23">
-        <v>8118</v>
+        <v>8123</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B24">
         <v>8118</v>
@@ -721,31 +850,31 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>8118</v>
+        <v>8080</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="B26">
-        <v>8118</v>
+        <v>53281</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B27">
-        <v>808</v>
+        <v>3128</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B28">
         <v>8118</v>
@@ -753,31 +882,31 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="B29">
-        <v>8118</v>
+        <v>8888</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="B30">
-        <v>808</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="B31">
-        <v>8118</v>
+        <v>8123</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B32">
         <v>8118</v>
@@ -785,47 +914,47 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="B33">
-        <v>8118</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="B34">
-        <v>80</v>
+        <v>808</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="B35">
-        <v>8118</v>
+        <v>8123</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="B36">
-        <v>808</v>
+        <v>8118</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="B37">
-        <v>8118</v>
+        <v>808</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="B38">
         <v>8118</v>
@@ -833,15 +962,15 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="B39">
-        <v>61234</v>
+        <v>808</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="B40">
         <v>8118</v>
@@ -849,15 +978,15 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B41">
-        <v>8118</v>
+        <v>808</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="B42">
         <v>808</v>
@@ -865,50 +994,394 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="B43">
-        <v>61234</v>
+        <v>8123</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="B44">
-        <v>42619</v>
+        <v>808</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="B45">
-        <v>8118</v>
+        <v>8081</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="B46">
-        <v>8123</v>
+        <v>8080</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B47">
-        <v>8118</v>
+        <v>808</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B48">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>37</v>
+      </c>
+      <c r="B49">
+        <v>8118</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>68</v>
+      </c>
+      <c r="B50">
+        <v>8118</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>69</v>
+      </c>
+      <c r="B51">
+        <v>8090</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52">
+        <v>61234</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>30</v>
+      </c>
+      <c r="B53">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>29</v>
+      </c>
+      <c r="B54">
+        <v>8118</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>70</v>
+      </c>
+      <c r="B55">
+        <v>8118</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>71</v>
+      </c>
+      <c r="B56">
+        <v>8118</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57">
+        <v>8118</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>72</v>
+      </c>
+      <c r="B58">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>73</v>
+      </c>
+      <c r="B60">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61">
+        <v>8118</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>74</v>
+      </c>
+      <c r="B62">
+        <v>8118</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
+        <v>75</v>
+      </c>
+      <c r="B63">
+        <v>8123</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>27</v>
+      </c>
+      <c r="B64">
+        <v>8118</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
+        <v>14</v>
+      </c>
+      <c r="B65">
+        <v>8118</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
+        <v>22</v>
+      </c>
+      <c r="B66">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
+        <v>76</v>
+      </c>
+      <c r="B67">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>15</v>
+      </c>
+      <c r="B68">
+        <v>8118</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
+        <v>77</v>
+      </c>
+      <c r="B69">
+        <v>3128</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
+        <v>78</v>
+      </c>
+      <c r="B70">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
+        <v>79</v>
+      </c>
+      <c r="B71">
+        <v>8123</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>80</v>
+      </c>
+      <c r="B72">
+        <v>8118</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
+        <v>81</v>
+      </c>
+      <c r="B73">
         <v>8081</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
+        <v>82</v>
+      </c>
+      <c r="B74">
+        <v>8081</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
+        <v>35</v>
+      </c>
+      <c r="B75">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
+        <v>34</v>
+      </c>
+      <c r="B76">
+        <v>8118</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
+        <v>36</v>
+      </c>
+      <c r="B77">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A78" t="s">
+        <v>83</v>
+      </c>
+      <c r="B78">
+        <v>8118</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A79" t="s">
+        <v>84</v>
+      </c>
+      <c r="B79">
+        <v>3128</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A80" t="s">
+        <v>85</v>
+      </c>
+      <c r="B80">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A81" t="s">
+        <v>86</v>
+      </c>
+      <c r="B81">
+        <v>8118</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A82" t="s">
+        <v>87</v>
+      </c>
+      <c r="B82">
+        <v>8081</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A83" t="s">
+        <v>39</v>
+      </c>
+      <c r="B83">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A84" t="s">
+        <v>88</v>
+      </c>
+      <c r="B84">
+        <v>8081</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A85" t="s">
+        <v>18</v>
+      </c>
+      <c r="B85">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A86" t="s">
+        <v>89</v>
+      </c>
+      <c r="B86">
+        <v>8118</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A87" t="s">
+        <v>13</v>
+      </c>
+      <c r="B87">
+        <v>8118</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A88" t="s">
+        <v>33</v>
+      </c>
+      <c r="B88">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A89" t="s">
+        <v>90</v>
+      </c>
+      <c r="B89">
+        <v>3128</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A90" t="s">
+        <v>3</v>
+      </c>
+      <c r="B90">
+        <v>8118</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A91" t="s">
+        <v>91</v>
+      </c>
+      <c r="B91">
+        <v>63000</v>
       </c>
     </row>
   </sheetData>
